--- a/Excel2Lua/bin/Debug/excel/累计消费.xlsx
+++ b/Excel2Lua/bin/Debug/excel/累计消费.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="通用" sheetId="1" r:id="rId1"/>
     <sheet name="累计消费" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -843,7 +843,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>604800</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6">
         <v>8110</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12">
-        <v>604800</v>
+        <v>7</v>
       </c>
       <c r="J5" s="14">
         <v>0</v>
@@ -1403,14 +1403,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
